--- a/08_Trace_Quality_Checker/Results/results_RQ1/CAEX/Quality-Checker-Hallucination-GPT4.xlsx
+++ b/08_Trace_Quality_Checker/Results/results_RQ1/CAEX/Quality-Checker-Hallucination-GPT4.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_IST\08_Trace_Quality_Checker\Results\results_RQ1\CAEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC9288-38C9-4704-BEF3-27D081EAD604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="42">
   <si>
     <t>File</t>
   </si>
@@ -145,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,17 +224,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +349,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,14 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +556,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -533,10 +564,10 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -547,7 +578,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -558,7 +589,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -569,7 +600,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -580,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -591,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -602,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -613,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -624,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -635,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -646,7 +677,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -654,10 +685,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>1.307692307692308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.3076923076923079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -668,7 +699,7 @@
         <v>1.214285714285714</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -679,7 +710,7 @@
         <v>1.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -690,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -701,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -712,7 +743,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -723,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -734,1824 +765,1824 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>1.117647058823529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>1.117647058823529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>1.2666666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>1.266666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C46">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>1.3076923076923079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C47">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <v>1.307692307692308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>1.0909090909090911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>1.090909090909091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C64">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C74">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" t="s">
-        <v>30</v>
-      </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C85">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C86">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
         <v>26</v>
       </c>
-      <c r="C88">
-        <v>2.375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C91">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
         <v>27</v>
       </c>
-      <c r="C89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C92">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
         <v>28</v>
       </c>
-      <c r="C91">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>30</v>
-      </c>
       <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C94">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
         <v>24</v>
       </c>
-      <c r="C95">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
         <v>25</v>
       </c>
-      <c r="C96">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C98">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
         <v>26</v>
       </c>
-      <c r="C97">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C99">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="C98">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" t="s">
-        <v>29</v>
-      </c>
       <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>13</v>
       </c>
       <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106">
+        <v>1.1818181818181821</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
         <v>25</v>
       </c>
-      <c r="C104">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C107">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
         <v>26</v>
       </c>
-      <c r="C105">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>27</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>28</v>
-      </c>
       <c r="C108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C112">
-        <v>1.181818181818182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C113">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C114">
-        <v>1.166666666666667</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
         <v>27</v>
       </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C118">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" t="s">
-        <v>30</v>
-      </c>
       <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C122">
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
       <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
         <v>26</v>
       </c>
-      <c r="C125">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="C129">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
         <v>27</v>
       </c>
-      <c r="C127">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>29</v>
-      </c>
       <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
       <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135">
+        <v>1.130434782608696</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
         <v>25</v>
       </c>
-      <c r="C134">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C136">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
         <v>26</v>
       </c>
-      <c r="C135">
-        <v>1.363636363636364</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="C137">
+        <v>1.023255813953488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
         <v>27</v>
       </c>
-      <c r="C136">
+      <c r="C140">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" t="s">
-        <v>37</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" t="s">
-        <v>28</v>
-      </c>
-      <c r="C138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" t="s">
-        <v>29</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" t="s">
-        <v>30</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C141">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C142">
-        <v>1.130434782608696</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
       <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
         <v>25</v>
       </c>
-      <c r="C143">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>17</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
         <v>26</v>
       </c>
-      <c r="C144">
-        <v>1.023255813953488</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C147">
+        <v>1.1333333333333331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
         <v>36</v>
       </c>
-      <c r="C145">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
         <v>41</v>
       </c>
-      <c r="C146">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>17</v>
-      </c>
-      <c r="B148" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>17</v>
-      </c>
-      <c r="B150" t="s">
-        <v>30</v>
-      </c>
       <c r="C150">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C151">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C152">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C154">
-        <v>1.133333333333333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
       <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159">
+        <v>1.3076923076923079</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
         <v>36</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="C160">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
         <v>41</v>
       </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="C161">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
         <v>27</v>
       </c>
-      <c r="C158">
-        <v>2.333333333333333</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>18</v>
-      </c>
-      <c r="B159" t="s">
-        <v>39</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" t="s">
-        <v>37</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="C162">
+        <v>2.5714285714285721</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
         <v>28</v>
       </c>
-      <c r="C161">
+      <c r="C163">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>18</v>
-      </c>
-      <c r="B162" t="s">
-        <v>29</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>18</v>
-      </c>
-      <c r="B163" t="s">
-        <v>30</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C164">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
       <c r="B165" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
         <v>24</v>
       </c>
-      <c r="C165">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="C166">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
         <v>25</v>
       </c>
-      <c r="C166">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>19</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="C167">
+        <v>2.8181818181818179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" t="s">
         <v>26</v>
       </c>
-      <c r="C167">
-        <v>1.307692307692308</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="C168">
+        <v>1.780487804878049</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169">
+        <v>3.2727272727272729</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175">
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
         <v>36</v>
       </c>
-      <c r="C168">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="C177">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
         <v>41</v>
       </c>
-      <c r="C169">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>19</v>
-      </c>
-      <c r="B170" t="s">
-        <v>27</v>
-      </c>
-      <c r="C170">
-        <v>2.571428571428572</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>19</v>
-      </c>
-      <c r="B171" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>19</v>
-      </c>
-      <c r="B172" t="s">
-        <v>29</v>
-      </c>
-      <c r="C172">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>19</v>
-      </c>
-      <c r="B173" t="s">
-        <v>30</v>
-      </c>
-      <c r="C173">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" t="s">
-        <v>23</v>
-      </c>
-      <c r="C174">
-        <v>19.66666666666667</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>20</v>
-      </c>
-      <c r="B175" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>20</v>
-      </c>
-      <c r="B176" t="s">
-        <v>25</v>
-      </c>
-      <c r="C176">
-        <v>2.818181818181818</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" t="s">
-        <v>26</v>
-      </c>
-      <c r="C177">
-        <v>1.780487804878049</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178" t="s">
-        <v>36</v>
-      </c>
       <c r="C178">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B179" t="s">
         <v>27</v>
       </c>
       <c r="C179">
-        <v>3.272727272727273</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
         <v>28</v>
       </c>
       <c r="C180">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B181" t="s">
         <v>29</v>
       </c>
       <c r="C181">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B182" t="s">
         <v>30</v>
       </c>
       <c r="C182">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
         <v>23</v>
       </c>
       <c r="C183">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>3.5555555555555549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B184" t="s">
         <v>24</v>
       </c>
       <c r="C184">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>0.28409090909090912</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B185" t="s">
         <v>25</v>
       </c>
       <c r="C185">
-        <v>0.8181818181818182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
         <v>26</v>
       </c>
       <c r="C186">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>0.35766423357664229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
         <v>36</v>
@@ -2560,169 +2591,59 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B188" t="s">
         <v>41</v>
       </c>
       <c r="C188">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>0.16666666666666671</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B189" t="s">
         <v>27</v>
       </c>
       <c r="C189">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B190" t="s">
         <v>28</v>
       </c>
       <c r="C190">
-        <v>1.714285714285714</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>1.2727272727272729</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B191" t="s">
         <v>29</v>
       </c>
       <c r="C191">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>0.19444444444444439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
       </c>
       <c r="C192">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>22</v>
-      </c>
-      <c r="B193" t="s">
-        <v>23</v>
-      </c>
-      <c r="C193">
-        <v>3.555555555555555</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>22</v>
-      </c>
-      <c r="B194" t="s">
-        <v>24</v>
-      </c>
-      <c r="C194">
-        <v>0.2840909090909091</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>22</v>
-      </c>
-      <c r="B195" t="s">
-        <v>25</v>
-      </c>
-      <c r="C195">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" t="s">
-        <v>26</v>
-      </c>
-      <c r="C196">
-        <v>0.3576642335766423</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>22</v>
-      </c>
-      <c r="B197" t="s">
-        <v>36</v>
-      </c>
-      <c r="C197">
-        <v>0.1818181818181818</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>22</v>
-      </c>
-      <c r="B198" t="s">
-        <v>41</v>
-      </c>
-      <c r="C198">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>22</v>
-      </c>
-      <c r="B199" t="s">
-        <v>27</v>
-      </c>
-      <c r="C199">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>22</v>
-      </c>
-      <c r="B200" t="s">
-        <v>28</v>
-      </c>
-      <c r="C200">
-        <v>1.272727272727273</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>22</v>
-      </c>
-      <c r="B201" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201">
-        <v>0.1944444444444444</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>22</v>
-      </c>
-      <c r="B202" t="s">
-        <v>30</v>
-      </c>
-      <c r="C202">
-        <v>0.1944444444444444</v>
+        <v>0.19444444444444439</v>
       </c>
     </row>
   </sheetData>
